--- a/Documentos/FormatosPlaneacion/v2/individual/Formato de planeacion Nicolas.xlsx
+++ b/Documentos/FormatosPlaneacion/v2/individual/Formato de planeacion Nicolas.xlsx
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -488,9 +488,6 @@
     <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="1" vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="1" vertical="bottom"/>
-    </xf>
     <xf borderId="11" fillId="5" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="1" vertical="bottom"/>
     </xf>
@@ -501,9 +498,6 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="1" vertical="bottom"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -529,9 +523,6 @@
     </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="1" vertical="bottom"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="1" vertical="bottom"/>
@@ -1007,85 +998,85 @@
       <c r="C15" s="26">
         <v>20.0</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>1.0</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="28">
         <v>20.0</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>1.0</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <f t="shared" si="2"/>
         <v>0.04166666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="26">
         <v>20.0</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>1.0</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <f t="shared" si="1"/>
         <v>0.04166666667</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>20.0</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>1.0</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <f t="shared" si="2"/>
         <v>0.04166666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="25.5" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="24"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="24"/>
@@ -1095,20 +1086,20 @@
       <c r="C20" s="26">
         <v>30.0</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>1.0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <f t="shared" ref="E20:E21" si="3">C20/$C$32</f>
         <v>0.0625</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="28">
         <v>20.0</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <v>1.0</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <f t="shared" ref="H20:H21" si="4">IF(D20=G20,E20,0)</f>
         <v>0.0625</v>
       </c>
@@ -1121,39 +1112,39 @@
       <c r="C21" s="26">
         <v>120.0</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>1.0</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>180.0</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>1.0</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="24"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="33"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="24"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="26">
@@ -1162,17 +1153,17 @@
       <c r="D23" s="26">
         <v>2.0</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <f t="shared" ref="E23:E24" si="5">C23/$C$32</f>
         <v>0.04166666667</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>20.0</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>2.0</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <f t="shared" ref="H23:H24" si="6">IF(D23=G23,E23,0)</f>
         <v>0.04166666667</v>
       </c>
@@ -1185,61 +1176,65 @@
       <c r="C24" s="26">
         <v>20.0</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="26">
         <v>2.0</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <f t="shared" si="5"/>
         <v>0.04166666667</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>30.0</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <v>2.0</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <f t="shared" si="6"/>
         <v>0.04166666667</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="24"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="33"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <v>30.0</v>
       </c>
       <c r="D26" s="26">
         <v>3.0</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <f t="shared" ref="E26:E27" si="7">C26/$C$32</f>
         <v>0.0625</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="28">
+      <c r="F26" s="36">
+        <v>20.0</v>
+      </c>
+      <c r="G26" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="H26" s="27">
         <f t="shared" ref="H26:H27" si="8">IF(D26=G26,E26,0)</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="24"/>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="26">
@@ -1248,53 +1243,61 @@
       <c r="D27" s="26">
         <v>3.0</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="27">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="28">
+      <c r="F27" s="36">
+        <v>100.0</v>
+      </c>
+      <c r="G27" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="H27" s="27">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="24"/>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="28">
         <v>30.0</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>3.0</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <f t="shared" ref="E29:E30" si="9">C29/$C$32</f>
         <v>0.0625</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="28">
+      <c r="F29" s="36">
+        <v>20.0</v>
+      </c>
+      <c r="G29" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" ref="H29:H30" si="10">IF(D29=G29,E29,0)</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="21" t="s">
         <v>33</v>
       </c>
@@ -1308,10 +1311,10 @@
         <f t="shared" si="9"/>
         <v>0.02083333333</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="21">
         <v>20.0</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="21">
         <v>2.0</v>
       </c>
       <c r="H30" s="23">
@@ -1320,90 +1323,90 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="43"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="42">
         <f>SUM(C14:C30)</f>
         <v>480</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47">
+      <c r="D32" s="43"/>
+      <c r="E32" s="44">
         <f t="shared" ref="E32:F32" si="11">SUM(E14:E30)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="42">
         <f t="shared" si="11"/>
-        <v>340</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="48">
+        <v>480</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="45">
         <f>SUM(H14:H30)</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="42">
         <f>C32/60</f>
         <v>8</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="45">
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="42">
         <f>F32/60</f>
-        <v>5.666666667</v>
-      </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="42"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="51"/>
+      <c r="B35" s="48"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="51"/>
+      <c r="B36" s="48"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="51"/>
+      <c r="B37" s="48"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="51"/>
+      <c r="B38" s="48"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="51"/>
+      <c r="B39" s="48"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="51"/>
+      <c r="B40" s="48"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="51"/>
+      <c r="B41" s="48"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="51"/>
+      <c r="B42" s="48"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="52"/>
+      <c r="B43" s="49"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="51"/>
+      <c r="B44" s="48"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="51"/>
+      <c r="B45" s="48"/>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
     <row r="47" ht="15.75" customHeight="1"/>
